--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExemploGIT\TesteGITHUB\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC2EC89-6979-4440-8841-9B36FB80999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012993B9-2F04-4433-865D-368DB25A3BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Gastos</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Lucro</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -111,23 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <strike val="0"/>
@@ -203,15 +184,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31FFBEE-1EC3-4DE6-8726-530665D70B01}" name="Table1" displayName="Table1" ref="C3:F9" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="C3:F9" xr:uid="{E31FFBEE-1EC3-4DE6-8726-530665D70B01}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4430B696-8B03-4B07-9AD7-0D12B61775EF}" name="Gastos" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1C8E2AA6-7F71-4C7B-B981-11103005C8C0}" name="Ganhos" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{384BE7D5-6936-415A-B210-961E76E00D7A}" name="Lucro" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E31FFBEE-1EC3-4DE6-8726-530665D70B01}" name="Table1" displayName="Table1" ref="C3:E9" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="C3:E9" xr:uid="{E31FFBEE-1EC3-4DE6-8726-530665D70B01}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4430B696-8B03-4B07-9AD7-0D12B61775EF}" name="Gastos" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1C8E2AA6-7F71-4C7B-B981-11103005C8C0}" name="Ganhos" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{384BE7D5-6936-415A-B210-961E76E00D7A}" name="Lucro" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FCB804C1-6B70-4D3B-9A76-F951EAF2CC57}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -480,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F9"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +471,9 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,11 +483,8 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <v>50</v>
       </c>
@@ -519,9 +495,8 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>-10</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>20</v>
       </c>
@@ -532,9 +507,8 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>50</v>
       </c>
@@ -545,9 +519,8 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>50</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>100</v>
       </c>
@@ -558,9 +531,8 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>-20</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>20</v>
       </c>
@@ -571,9 +543,8 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="3:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="3:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>60</v>
       </c>
@@ -584,7 +555,6 @@
         <f>Table1[[#This Row],[Ganhos]]-Table1[[#This Row],[Gastos]]</f>
         <v>-30</v>
       </c>
-      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
